--- a/results/Auto/genero-m1_es_profesion-m2.xlsx
+++ b/results/Auto/genero-m1_es_profesion-m2.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.004407580010592937</v>
+        <v>1.960481910145973e-08</v>
       </c>
       <c r="E2" t="n">
         <v>0.0005011144676245749</v>
@@ -505,7 +505,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -527,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.009142669849097729</v>
+        <v>4.727521707437177e-10</v>
       </c>
       <c r="E3" t="n">
         <v>0.0005235820426605642</v>
@@ -544,7 +544,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -566,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001628094119951129</v>
+        <v>3.561738637358758e-08</v>
       </c>
       <c r="E4" t="n">
         <v>0.0009023757302202284</v>
@@ -583,7 +583,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -605,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001572467270307243</v>
+        <v>1.433664409411506e-09</v>
       </c>
       <c r="E5" t="n">
         <v>0.0005221879109740257</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -644,7 +644,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.005548559594899416</v>
+        <v>1.050891018650191e-08</v>
       </c>
       <c r="E6" t="n">
         <v>1.316039470111718e-05</v>
@@ -661,7 +661,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -683,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.005731597542762756</v>
+        <v>2.786270414389946e-08</v>
       </c>
       <c r="E7" t="n">
         <v>0.004771800711750984</v>
@@ -700,7 +700,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0002293137367814779</v>
+        <v>1.267447746755579e-08</v>
       </c>
       <c r="E8" t="n">
         <v>9.469494398217648e-05</v>
@@ -739,7 +739,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -761,7 +761,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002459734445437789</v>
+        <v>4.557705324259587e-08</v>
       </c>
       <c r="E9" t="n">
         <v>0.000660266203340143</v>
@@ -778,7 +778,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -800,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002894475823268294</v>
+        <v>3.802631987070981e-09</v>
       </c>
       <c r="E10" t="n">
         <v>0.001321005402132869</v>
@@ -817,7 +817,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -839,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>0.005079735536128283</v>
+        <v>6.428254550883139e-08</v>
       </c>
       <c r="E11" t="n">
         <v>0.001161677879281342</v>
@@ -856,7 +856,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -878,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001684459042735398</v>
+        <v>7.954334413362574e-11</v>
       </c>
       <c r="E12" t="n">
         <v>1.235738818650134e-05</v>
@@ -895,7 +895,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -917,7 +917,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01056556589901447</v>
+        <v>3.616909882708796e-09</v>
       </c>
       <c r="E13" t="n">
         <v>0.005267933011054993</v>
@@ -934,7 +934,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -956,7 +956,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002241735346615314</v>
+        <v>1.321576448276574e-08</v>
       </c>
       <c r="E14" t="n">
         <v>0.0003175393212586641</v>
@@ -973,7 +973,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -995,7 +995,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01110188663005829</v>
+        <v>7.250606159914241e-08</v>
       </c>
       <c r="E15" t="n">
         <v>0.002435669302940369</v>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1034,7 +1034,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0003970351535826921</v>
+        <v>3.000511172857045e-09</v>
       </c>
       <c r="E16" t="n">
         <v>1.898493451335526e-06</v>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1073,7 +1073,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002231394872069359</v>
+        <v>1.349482658952184e-08</v>
       </c>
       <c r="E17" t="n">
         <v>0.0003784498258028179</v>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1112,7 +1112,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0003596570168156177</v>
+        <v>4.781885998283997e-09</v>
       </c>
       <c r="E18" t="n">
         <v>6.276685127204473e-08</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1151,7 +1151,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001798071898519993</v>
+        <v>4.251246021880206e-09</v>
       </c>
       <c r="E19" t="n">
         <v>0.0008790313149802387</v>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1190,7 +1190,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>0.006231172010302544</v>
+        <v>3.751825072839665e-09</v>
       </c>
       <c r="E20" t="n">
         <v>0.001977276057004929</v>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1229,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0004381369217298925</v>
+        <v>2.036801838301017e-09</v>
       </c>
       <c r="E21" t="n">
         <v>3.5098782973364e-06</v>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1268,7 +1268,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0002044087596004829</v>
+        <v>2.380707364579848e-08</v>
       </c>
       <c r="E22" t="n">
         <v>4.773728505824693e-05</v>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1307,7 +1307,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001888642786070704</v>
+        <v>1.66659894773602e-08</v>
       </c>
       <c r="E23" t="n">
         <v>0.0004268312186468393</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1346,7 +1346,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0001842720666900277</v>
+        <v>5.28460275539544e-10</v>
       </c>
       <c r="E24" t="n">
         <v>1.09182144569786e-06</v>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1385,7 +1385,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07185292989015579</v>
+        <v>1.81922354958175e-09</v>
       </c>
       <c r="E25" t="n">
         <v>0.0006062259781174362</v>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1424,7 +1424,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00317965866997838</v>
+        <v>6.658013518290318e-08</v>
       </c>
       <c r="E26" t="n">
         <v>0.002482057781890035</v>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1463,7 +1463,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02280838415026665</v>
+        <v>4.032610334547826e-08</v>
       </c>
       <c r="E27" t="n">
         <v>5.322153083398007e-05</v>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1502,7 +1502,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="n">
-        <v>0.001306314836256206</v>
+        <v>5.194151012077874e-11</v>
       </c>
       <c r="E28" t="n">
         <v>0.0008109800983220339</v>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1541,7 +1541,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0005971684586256742</v>
+        <v>4.591018232247279e-09</v>
       </c>
       <c r="E29" t="n">
         <v>0.0001568238367326558</v>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1580,7 +1580,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="n">
-        <v>0.00499534048140049</v>
+        <v>3.080822708056985e-09</v>
       </c>
       <c r="E30" t="n">
         <v>0.0005184927140362561</v>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1619,7 +1619,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>0.005992271471768618</v>
+        <v>9.099315745331182e-10</v>
       </c>
       <c r="E31" t="n">
         <v>5.846071871928871e-05</v>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1658,7 +1658,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="n">
-        <v>0.002308922354131937</v>
+        <v>7.411665947643087e-09</v>
       </c>
       <c r="E32" t="n">
         <v>0.00397418811917305</v>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1697,7 +1697,7 @@
         <v>32</v>
       </c>
       <c r="D33" t="n">
-        <v>0.005453489255160093</v>
+        <v>3.723589259152504e-08</v>
       </c>
       <c r="E33" t="n">
         <v>0.01494969800114632</v>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1736,7 +1736,7 @@
         <v>33</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0008506260346621275</v>
+        <v>4.103108963704472e-09</v>
       </c>
       <c r="E34" t="n">
         <v>7.849375833757222e-06</v>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1775,7 +1775,7 @@
         <v>34</v>
       </c>
       <c r="D35" t="n">
-        <v>0.008578125387430191</v>
+        <v>3.302043527497744e-09</v>
       </c>
       <c r="E35" t="n">
         <v>0.006955733057111502</v>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1814,7 +1814,7 @@
         <v>35</v>
       </c>
       <c r="D36" t="n">
-        <v>0.006083728279918432</v>
+        <v>2.009296506955138e-09</v>
       </c>
       <c r="E36" t="n">
         <v>8.586583135183901e-05</v>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1853,7 +1853,7 @@
         <v>36</v>
       </c>
       <c r="D37" t="n">
-        <v>0.003620012663304806</v>
+        <v>2.023413554763653e-11</v>
       </c>
       <c r="E37" t="n">
         <v>1.661522765061818e-05</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1892,7 +1892,7 @@
         <v>37</v>
       </c>
       <c r="D38" t="n">
-        <v>0.002593168988823891</v>
+        <v>3.697016692782995e-09</v>
       </c>
       <c r="E38" t="n">
         <v>0.00598828261718154</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1931,7 +1931,7 @@
         <v>38</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0050324322655797</v>
+        <v>4.646897977522713e-09</v>
       </c>
       <c r="E39" t="n">
         <v>0.0002733176806941628</v>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -1970,7 +1970,7 @@
         <v>39</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0005586104234680533</v>
+        <v>6.696934118366471e-10</v>
       </c>
       <c r="E40" t="n">
         <v>0.001230235327966511</v>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2009,7 +2009,7 @@
         <v>40</v>
       </c>
       <c r="D41" t="n">
-        <v>0.00109029293525964</v>
+        <v>2.251562669641771e-08</v>
       </c>
       <c r="E41" t="n">
         <v>0.0001195992226712406</v>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2048,7 +2048,7 @@
         <v>41</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0009162628557533026</v>
+        <v>1.075266431449506e-09</v>
       </c>
       <c r="E42" t="n">
         <v>0.0003395838430151343</v>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2087,7 +2087,7 @@
         <v>42</v>
       </c>
       <c r="D43" t="n">
-        <v>0.004123520106077194</v>
+        <v>3.209293719663719e-09</v>
       </c>
       <c r="E43" t="n">
         <v>1.170140330941649e-05</v>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2126,7 +2126,7 @@
         <v>43</v>
       </c>
       <c r="D44" t="n">
-        <v>0.001616316032595932</v>
+        <v>4.79445039225368e-10</v>
       </c>
       <c r="E44" t="n">
         <v>3.003912024723832e-05</v>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2165,7 +2165,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="n">
-        <v>0.004025670234113932</v>
+        <v>1.981265596029402e-09</v>
       </c>
       <c r="E45" t="n">
         <v>0.001710482174530625</v>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2204,7 +2204,7 @@
         <v>45</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0005098459077998996</v>
+        <v>5.252072665662411e-10</v>
       </c>
       <c r="E46" t="n">
         <v>0.0003475024714134634</v>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2243,7 +2243,7 @@
         <v>46</v>
       </c>
       <c r="D47" t="n">
-        <v>0.003463160945102572</v>
+        <v>3.851731822379634e-09</v>
       </c>
       <c r="E47" t="n">
         <v>0.0006009896751493216</v>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2282,7 +2282,7 @@
         <v>47</v>
       </c>
       <c r="D48" t="n">
-        <v>0.005845949985086918</v>
+        <v>3.200654319357454e-08</v>
       </c>
       <c r="E48" t="n">
         <v>0.003830046625807881</v>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2321,7 +2321,7 @@
         <v>48</v>
       </c>
       <c r="D49" t="n">
-        <v>0.002054167212918401</v>
+        <v>2.496580719935082e-08</v>
       </c>
       <c r="E49" t="n">
         <v>0.0002682681079022586</v>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2360,7 +2360,7 @@
         <v>49</v>
       </c>
       <c r="D50" t="n">
-        <v>0.001403418951667845</v>
+        <v>1.60720770026046e-08</v>
       </c>
       <c r="E50" t="n">
         <v>0.0009913205867633224</v>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2399,7 +2399,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="n">
-        <v>0.001986677758395672</v>
+        <v>5.93921178904111e-09</v>
       </c>
       <c r="E51" t="n">
         <v>5.448271622299217e-05</v>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2438,7 +2438,7 @@
         <v>51</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0008104121079668403</v>
+        <v>6.473465652412358e-10</v>
       </c>
       <c r="E52" t="n">
         <v>9.479073196416721e-05</v>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2477,7 +2477,7 @@
         <v>52</v>
       </c>
       <c r="D53" t="n">
-        <v>0.002824439201503992</v>
+        <v>2.084159405058017e-07</v>
       </c>
       <c r="E53" t="n">
         <v>0.004012987483292818</v>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2516,7 +2516,7 @@
         <v>53</v>
       </c>
       <c r="D54" t="n">
-        <v>0.001118206069804728</v>
+        <v>5.455066443005308e-08</v>
       </c>
       <c r="E54" t="n">
         <v>0.0003660857619252056</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2555,7 +2555,7 @@
         <v>54</v>
       </c>
       <c r="D55" t="n">
-        <v>0.001959062879905105</v>
+        <v>3.95688681820161e-09</v>
       </c>
       <c r="E55" t="n">
         <v>1.370658628729871e-05</v>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2594,7 +2594,7 @@
         <v>55</v>
       </c>
       <c r="D56" t="n">
-        <v>6.647119880653918e-05</v>
+        <v>3.268048498483722e-09</v>
       </c>
       <c r="E56" t="n">
         <v>0.004619966726750135</v>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2633,7 +2633,7 @@
         <v>56</v>
       </c>
       <c r="D57" t="n">
-        <v>1.509427693235921e-05</v>
+        <v>1.524957521370496e-10</v>
       </c>
       <c r="E57" t="n">
         <v>0.0001621028932277113</v>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2672,7 +2672,7 @@
         <v>57</v>
       </c>
       <c r="D58" t="n">
-        <v>0.001081682625226676</v>
+        <v>1.281203809710973e-09</v>
       </c>
       <c r="E58" t="n">
         <v>0.001343972515314817</v>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2711,7 +2711,7 @@
         <v>58</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0004128642613068223</v>
+        <v>3.017908367652922e-09</v>
       </c>
       <c r="E59" t="n">
         <v>3.538825012583402e-06</v>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2750,7 +2750,7 @@
         <v>59</v>
       </c>
       <c r="D60" t="n">
-        <v>0.004885442089289427</v>
+        <v>2.092313877710694e-08</v>
       </c>
       <c r="E60" t="n">
         <v>0.002236933680251241</v>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -2789,7 +2789,7 @@
         <v>60</v>
       </c>
       <c r="D61" t="n">
-        <v>0.001835748320445418</v>
+        <v>8.496904513322079e-09</v>
       </c>
       <c r="E61" t="n">
         <v>0.004374947398900986</v>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2828,7 +2828,7 @@
         <v>61</v>
       </c>
       <c r="D62" t="n">
-        <v>0.007840069942176342</v>
+        <v>5.483701270847519e-10</v>
       </c>
       <c r="E62" t="n">
         <v>0.0001211999988299794</v>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -2867,7 +2867,7 @@
         <v>62</v>
       </c>
       <c r="D63" t="n">
-        <v>0.005577686708420515</v>
+        <v>4.838733858036903e-08</v>
       </c>
       <c r="E63" t="n">
         <v>6.437770935008302e-05</v>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -2906,7 +2906,7 @@
         <v>63</v>
       </c>
       <c r="D64" t="n">
-        <v>0.004507287405431271</v>
+        <v>2.659093611967478e-09</v>
       </c>
       <c r="E64" t="n">
         <v>0.01017674896866083</v>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -2945,7 +2945,7 @@
         <v>64</v>
       </c>
       <c r="D65" t="n">
-        <v>0.03792146220803261</v>
+        <v>1.49646517400015e-09</v>
       </c>
       <c r="E65" t="n">
         <v>0.004385996144264936</v>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -2984,7 +2984,7 @@
         <v>65</v>
       </c>
       <c r="D66" t="n">
-        <v>0.001674453145824373</v>
+        <v>9.288932956152962e-10</v>
       </c>
       <c r="E66" t="n">
         <v>5.774920282419771e-06</v>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3023,7 +3023,7 @@
         <v>66</v>
       </c>
       <c r="D67" t="n">
-        <v>0.001282303594052792</v>
+        <v>2.555486711131039e-09</v>
       </c>
       <c r="E67" t="n">
         <v>0.0002468116290401667</v>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3062,7 +3062,7 @@
         <v>67</v>
       </c>
       <c r="D68" t="n">
-        <v>0.007939467206597328</v>
+        <v>6.697168153380062e-09</v>
       </c>
       <c r="E68" t="n">
         <v>0.01322981435805559</v>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3101,7 +3101,7 @@
         <v>68</v>
       </c>
       <c r="D69" t="n">
-        <v>0.005658612120896578</v>
+        <v>9.778523768488867e-09</v>
       </c>
       <c r="E69" t="n">
         <v>0.001983332214877009</v>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3140,7 +3140,7 @@
         <v>69</v>
       </c>
       <c r="D70" t="n">
-        <v>0.001809502602554858</v>
+        <v>1.370560553937139e-08</v>
       </c>
       <c r="E70" t="n">
         <v>0.0001600760006112978</v>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3179,7 +3179,7 @@
         <v>70</v>
       </c>
       <c r="D71" t="n">
-        <v>0.008465336635708809</v>
+        <v>9.26624252883812e-08</v>
       </c>
       <c r="E71" t="n">
         <v>0.001120900036767125</v>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3218,7 +3218,7 @@
         <v>71</v>
       </c>
       <c r="D72" t="n">
-        <v>0.005907716695219278</v>
+        <v>3.560352723752658e-08</v>
       </c>
       <c r="E72" t="n">
         <v>0.0005558310076594353</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3257,7 +3257,7 @@
         <v>72</v>
       </c>
       <c r="D73" t="n">
-        <v>0.008186731487512589</v>
+        <v>3.640353440914623e-08</v>
       </c>
       <c r="E73" t="n">
         <v>0.000755725079216063</v>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3296,7 +3296,7 @@
         <v>73</v>
       </c>
       <c r="D74" t="n">
-        <v>0.00201332219876349</v>
+        <v>3.773533485684766e-09</v>
       </c>
       <c r="E74" t="n">
         <v>0.0011665167985484</v>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3335,7 +3335,7 @@
         <v>74</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0003272040339652449</v>
+        <v>1.794980519775891e-08</v>
       </c>
       <c r="E75" t="n">
         <v>2.575209327915218e-05</v>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -3374,7 +3374,7 @@
         <v>75</v>
       </c>
       <c r="D76" t="n">
-        <v>0.004184913821518421</v>
+        <v>3.318139008001708e-08</v>
       </c>
       <c r="E76" t="n">
         <v>0.0002247157535748556</v>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -3413,7 +3413,7 @@
         <v>76</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0003845855535473675</v>
+        <v>5.454769413937299e-10</v>
       </c>
       <c r="E77" t="n">
         <v>6.273018243518891e-06</v>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -3452,7 +3452,7 @@
         <v>77</v>
       </c>
       <c r="D78" t="n">
-        <v>0.001295856782235205</v>
+        <v>2.761531801842576e-11</v>
       </c>
       <c r="E78" t="n">
         <v>1.547704960103147e-05</v>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -3491,7 +3491,7 @@
         <v>78</v>
       </c>
       <c r="D79" t="n">
-        <v>0.001054791267961264</v>
+        <v>2.13069988319603e-08</v>
       </c>
       <c r="E79" t="n">
         <v>0.0001382181217195466</v>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -3530,7 +3530,7 @@
         <v>79</v>
       </c>
       <c r="D80" t="n">
-        <v>0.002563209971413016</v>
+        <v>4.209136594823804e-09</v>
       </c>
       <c r="E80" t="n">
         <v>0.0001098733991966583</v>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -3569,7 +3569,7 @@
         <v>80</v>
       </c>
       <c r="D81" t="n">
-        <v>0.001873969915322959</v>
+        <v>1.638694513417249e-08</v>
       </c>
       <c r="E81" t="n">
         <v>0.0004634169454220682</v>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -3608,7 +3608,7 @@
         <v>81</v>
       </c>
       <c r="D82" t="n">
-        <v>0.003261654870584607</v>
+        <v>1.378266833995667e-08</v>
       </c>
       <c r="E82" t="n">
         <v>0.01002043765038252</v>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -3647,7 +3647,7 @@
         <v>82</v>
       </c>
       <c r="D83" t="n">
-        <v>0.01088021136820316</v>
+        <v>4.024374433697631e-08</v>
       </c>
       <c r="E83" t="n">
         <v>0.001000767690129578</v>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -3686,7 +3686,7 @@
         <v>83</v>
       </c>
       <c r="D84" t="n">
-        <v>0.003745266236364841</v>
+        <v>4.546815368655643e-09</v>
       </c>
       <c r="E84" t="n">
         <v>0.003456674283370376</v>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -3725,7 +3725,7 @@
         <v>84</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0003049567749258131</v>
+        <v>1.799435045413134e-09</v>
       </c>
       <c r="E85" t="n">
         <v>0.001548274070955813</v>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -3764,7 +3764,7 @@
         <v>85</v>
       </c>
       <c r="D86" t="n">
-        <v>0.002398169599473476</v>
+        <v>3.436994688854611e-09</v>
       </c>
       <c r="E86" t="n">
         <v>0.0002350507857045159</v>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -3803,7 +3803,7 @@
         <v>86</v>
       </c>
       <c r="D87" t="n">
-        <v>0.01121995318681002</v>
+        <v>2.571814095020386e-09</v>
       </c>
       <c r="E87" t="n">
         <v>1.149147556134267e-05</v>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -3842,7 +3842,7 @@
         <v>87</v>
       </c>
       <c r="D88" t="n">
-        <v>0.04912177100777626</v>
+        <v>5.168983907566371e-09</v>
       </c>
       <c r="E88" t="n">
         <v>2.324689194210805e-05</v>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -3881,7 +3881,7 @@
         <v>88</v>
       </c>
       <c r="D89" t="n">
-        <v>0.003226420376449823</v>
+        <v>7.600657170314662e-08</v>
       </c>
       <c r="E89" t="n">
         <v>0.001615298679098487</v>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -3920,7 +3920,7 @@
         <v>89</v>
       </c>
       <c r="D90" t="n">
-        <v>7.05411221133545e-05</v>
+        <v>1.55913859600787e-08</v>
       </c>
       <c r="E90" t="n">
         <v>0.000355678959749639</v>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -3959,7 +3959,7 @@
         <v>90</v>
       </c>
       <c r="D91" t="n">
-        <v>0.004167328123003244</v>
+        <v>8.953431773761622e-09</v>
       </c>
       <c r="E91" t="n">
         <v>0.0004842218477278948</v>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -3998,7 +3998,7 @@
         <v>91</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0004957936471328139</v>
+        <v>3.453241248507766e-08</v>
       </c>
       <c r="E92" t="n">
         <v>2.038470847764984e-05</v>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4037,7 +4037,7 @@
         <v>92</v>
       </c>
       <c r="D93" t="n">
-        <v>0.006850602105259895</v>
+        <v>2.824790956701406e-10</v>
       </c>
       <c r="E93" t="n">
         <v>9.468062489759177e-05</v>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4076,7 +4076,7 @@
         <v>93</v>
       </c>
       <c r="D94" t="n">
-        <v>0.02669740281999111</v>
+        <v>6.741904812201938e-09</v>
       </c>
       <c r="E94" t="n">
         <v>0.000826289237011224</v>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4115,7 +4115,7 @@
         <v>94</v>
       </c>
       <c r="D95" t="n">
-        <v>3.327208833070472e-05</v>
+        <v>1.171439167890753e-09</v>
       </c>
       <c r="E95" t="n">
         <v>9.941263812152101e-08</v>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -4154,7 +4154,7 @@
         <v>95</v>
       </c>
       <c r="D96" t="n">
-        <v>0.02147465385496616</v>
+        <v>3.130826264907682e-09</v>
       </c>
       <c r="E96" t="n">
         <v>3.177579492330551e-05</v>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -4193,7 +4193,7 @@
         <v>96</v>
       </c>
       <c r="D97" t="n">
-        <v>0.001455494551919401</v>
+        <v>6.971603294658735e-10</v>
       </c>
       <c r="E97" t="n">
         <v>0.00268805306404829</v>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -4232,7 +4232,7 @@
         <v>97</v>
       </c>
       <c r="D98" t="n">
-        <v>0.005006007850170135</v>
+        <v>2.419780820162032e-08</v>
       </c>
       <c r="E98" t="n">
         <v>0.007441301830112934</v>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -4271,7 +4271,7 @@
         <v>98</v>
       </c>
       <c r="D99" t="n">
-        <v>0.00901991780847311</v>
+        <v>4.893503824376921e-09</v>
       </c>
       <c r="E99" t="n">
         <v>0.002684719627723098</v>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -4310,7 +4310,7 @@
         <v>99</v>
       </c>
       <c r="D100" t="n">
-        <v>0.01032156497240067</v>
+        <v>6.860352730342356e-09</v>
       </c>
       <c r="E100" t="n">
         <v>5.830185909871943e-05</v>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -4349,7 +4349,7 @@
         <v>100</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0006691457238048315</v>
+        <v>1.12114140193853e-09</v>
       </c>
       <c r="E101" t="n">
         <v>0.0001145223504863679</v>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -4388,7 +4388,7 @@
         <v>101</v>
       </c>
       <c r="D102" t="n">
-        <v>0.01007949747145176</v>
+        <v>7.56469464846532e-09</v>
       </c>
       <c r="E102" t="n">
         <v>7.509235729230568e-06</v>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -4427,7 +4427,7 @@
         <v>102</v>
       </c>
       <c r="D103" t="n">
-        <v>0.001498800120316446</v>
+        <v>5.352584597773102e-09</v>
       </c>
       <c r="E103" t="n">
         <v>6.998494791332632e-05</v>
@@ -4444,7 +4444,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -4466,7 +4466,7 @@
         <v>103</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0003272983885835856</v>
+        <v>3.15555026553227e-09</v>
       </c>
       <c r="E104" t="n">
         <v>4.659488695324399e-05</v>
@@ -4483,7 +4483,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -4505,7 +4505,7 @@
         <v>104</v>
       </c>
       <c r="D105" t="n">
-        <v>9.662371303420514e-05</v>
+        <v>3.132940573635778e-10</v>
       </c>
       <c r="E105" t="n">
         <v>1.556548909320554e-06</v>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -4544,7 +4544,7 @@
         <v>105</v>
       </c>
       <c r="D106" t="n">
-        <v>0.002638863399624825</v>
+        <v>3.016985772319458e-09</v>
       </c>
       <c r="E106" t="n">
         <v>0.004761177115142345</v>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -4583,7 +4583,7 @@
         <v>106</v>
       </c>
       <c r="D107" t="n">
-        <v>0.002935800701379776</v>
+        <v>6.501240434886313e-09</v>
       </c>
       <c r="E107" t="n">
         <v>1.905757562781218e-05</v>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -4622,7 +4622,7 @@
         <v>107</v>
       </c>
       <c r="D108" t="n">
-        <v>0.004190096165984869</v>
+        <v>2.320027281399462e-09</v>
       </c>
       <c r="E108" t="n">
         <v>0.0005186644266359508</v>
@@ -4639,7 +4639,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -4661,7 +4661,7 @@
         <v>108</v>
       </c>
       <c r="D109" t="n">
-        <v>0.01139812078326941</v>
+        <v>1.379988207039773e-10</v>
       </c>
       <c r="E109" t="n">
         <v>0.0001487772387918085</v>
@@ -4678,7 +4678,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -4700,7 +4700,7 @@
         <v>109</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0003517346631269902</v>
+        <v>1.457918674674374e-09</v>
       </c>
       <c r="E110" t="n">
         <v>4.18564050050918e-05</v>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -4739,7 +4739,7 @@
         <v>110</v>
       </c>
       <c r="D111" t="n">
-        <v>0.003533995244652033</v>
+        <v>2.063731940893376e-08</v>
       </c>
       <c r="E111" t="n">
         <v>0.0001431979471817613</v>
@@ -4756,7 +4756,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -4778,7 +4778,7 @@
         <v>111</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0006892654346302152</v>
+        <v>2.559017220349347e-09</v>
       </c>
       <c r="E112" t="n">
         <v>0.002289737807586789</v>
@@ -4795,7 +4795,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -4817,7 +4817,7 @@
         <v>112</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0006892654346302152</v>
+        <v>2.559017220349347e-09</v>
       </c>
       <c r="E113" t="n">
         <v>0.002289737807586789</v>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -4856,7 +4856,7 @@
         <v>113</v>
       </c>
       <c r="D114" t="n">
-        <v>0.006269860547035933</v>
+        <v>3.641279278099319e-09</v>
       </c>
       <c r="E114" t="n">
         <v>0.01732729375362396</v>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -4895,7 +4895,7 @@
         <v>114</v>
       </c>
       <c r="D115" t="n">
-        <v>0.002161619486287236</v>
+        <v>5.268650848933021e-09</v>
       </c>
       <c r="E115" t="n">
         <v>2.536168176447973e-05</v>
@@ -4912,7 +4912,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -4934,7 +4934,7 @@
         <v>115</v>
       </c>
       <c r="D116" t="n">
-        <v>0.002111636335030198</v>
+        <v>4.887957261168197e-10</v>
       </c>
       <c r="E116" t="n">
         <v>0.0001470838178647682</v>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -4973,7 +4973,7 @@
         <v>116</v>
       </c>
       <c r="D117" t="n">
-        <v>0.006927782204002142</v>
+        <v>8.550275154561859e-09</v>
       </c>
       <c r="E117" t="n">
         <v>0.0009710032609291375</v>
@@ -4990,7 +4990,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -5012,7 +5012,7 @@
         <v>117</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0007423785282298923</v>
+        <v>1.179171160714532e-08</v>
       </c>
       <c r="E118" t="n">
         <v>0.002655394375324249</v>
@@ -5029,7 +5029,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -5051,7 +5051,7 @@
         <v>118</v>
       </c>
       <c r="D119" t="n">
-        <v>0.001099448534660041</v>
+        <v>5.139835224099443e-10</v>
       </c>
       <c r="E119" t="n">
         <v>2.559032327553723e-05</v>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -5090,7 +5090,7 @@
         <v>119</v>
       </c>
       <c r="D120" t="n">
-        <v>0.002865515183657408</v>
+        <v>8.913381144282084e-09</v>
       </c>
       <c r="E120" t="n">
         <v>0.002917566103860736</v>
@@ -5107,7 +5107,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -5129,7 +5129,7 @@
         <v>120</v>
       </c>
       <c r="D121" t="n">
-        <v>0.003925773315131664</v>
+        <v>8.353494784785198e-09</v>
       </c>
       <c r="E121" t="n">
         <v>0.001109631848521531</v>
@@ -5146,7 +5146,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -5168,7 +5168,7 @@
         <v>121</v>
       </c>
       <c r="D122" t="n">
-        <v>0.001232729526236653</v>
+        <v>5.192793306463273e-09</v>
       </c>
       <c r="E122" t="n">
         <v>0.0001102616370189935</v>
@@ -5185,7 +5185,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -5207,7 +5207,7 @@
         <v>122</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0006443876773118973</v>
+        <v>4.030525080356284e-10</v>
       </c>
       <c r="E123" t="n">
         <v>0.0001063631352735683</v>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -5246,7 +5246,7 @@
         <v>123</v>
       </c>
       <c r="D124" t="n">
-        <v>0.002782965311780572</v>
+        <v>1.016324446823091e-07</v>
       </c>
       <c r="E124" t="n">
         <v>0.0004307565395720303</v>
@@ -5263,7 +5263,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -5285,7 +5285,7 @@
         <v>124</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0006190867861732841</v>
+        <v>7.919088995667067e-11</v>
       </c>
       <c r="E125" t="n">
         <v>1.616441750229569e-06</v>
@@ -5302,7 +5302,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -5324,7 +5324,7 @@
         <v>125</v>
       </c>
       <c r="D126" t="n">
-        <v>0.001987728523090482</v>
+        <v>1.028881313480667e-09</v>
       </c>
       <c r="E126" t="n">
         <v>0.000378878612536937</v>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -5363,7 +5363,7 @@
         <v>126</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0005696234875358641</v>
+        <v>1.157804851992239e-09</v>
       </c>
       <c r="E127" t="n">
         <v>0.0002478716196492314</v>
@@ -5380,7 +5380,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -5402,7 +5402,7 @@
         <v>127</v>
       </c>
       <c r="D128" t="n">
-        <v>0.001245426246896386</v>
+        <v>1.923948778070894e-09</v>
       </c>
       <c r="E128" t="n">
         <v>0.0008264547795988619</v>
@@ -5419,7 +5419,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -5441,7 +5441,7 @@
         <v>128</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0002730319101829082</v>
+        <v>6.829726367785227e-11</v>
       </c>
       <c r="E129" t="n">
         <v>5.052589403931051e-05</v>
@@ -5458,7 +5458,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -5480,7 +5480,7 @@
         <v>129</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0001436260354239494</v>
+        <v>3.737793408120638e-11</v>
       </c>
       <c r="E130" t="n">
         <v>0.0004826870572287589</v>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -5519,7 +5519,7 @@
         <v>130</v>
       </c>
       <c r="D131" t="n">
-        <v>0.01104036718606949</v>
+        <v>3.406844228948103e-08</v>
       </c>
       <c r="E131" t="n">
         <v>0.009899449534714222</v>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -5558,7 +5558,7 @@
         <v>131</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0009210120770148933</v>
+        <v>6.935078067371592e-10</v>
       </c>
       <c r="E132" t="n">
         <v>0.002107658190652728</v>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -5597,7 +5597,7 @@
         <v>132</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0005464825080707669</v>
+        <v>1.930962723051266e-09</v>
       </c>
       <c r="E133" t="n">
         <v>0.0006086560315452516</v>
@@ -5614,7 +5614,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -5636,7 +5636,7 @@
         <v>133</v>
       </c>
       <c r="D134" t="n">
-        <v>0.005274238064885139</v>
+        <v>2.469785620462517e-08</v>
       </c>
       <c r="E134" t="n">
         <v>0.004725819453597069</v>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -5675,7 +5675,7 @@
         <v>134</v>
       </c>
       <c r="D135" t="n">
-        <v>0.009885904379189014</v>
+        <v>4.444531687131104e-10</v>
       </c>
       <c r="E135" t="n">
         <v>5.295098162605427e-05</v>
@@ -5692,7 +5692,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -5714,7 +5714,7 @@
         <v>135</v>
       </c>
       <c r="D136" t="n">
-        <v>0.01367144379764795</v>
+        <v>1.504164126586716e-09</v>
       </c>
       <c r="E136" t="n">
         <v>0.001407572766765952</v>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -5753,7 +5753,7 @@
         <v>136</v>
       </c>
       <c r="D137" t="n">
-        <v>0.007473115343600512</v>
+        <v>3.531909342768813e-08</v>
       </c>
       <c r="E137" t="n">
         <v>0.002665268490090966</v>
@@ -5770,7 +5770,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -5792,7 +5792,7 @@
         <v>137</v>
       </c>
       <c r="D138" t="n">
-        <v>0.007646933663636446</v>
+        <v>1.835903518099258e-08</v>
       </c>
       <c r="E138" t="n">
         <v>0.00256539904512465</v>
@@ -5809,7 +5809,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -5831,7 +5831,7 @@
         <v>138</v>
       </c>
       <c r="D139" t="n">
-        <v>0.007778583094477654</v>
+        <v>1.786242798118565e-08</v>
       </c>
       <c r="E139" t="n">
         <v>0.001077406341210008</v>
@@ -5848,7 +5848,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -5870,7 +5870,7 @@
         <v>139</v>
       </c>
       <c r="D140" t="n">
-        <v>0.004067775327712297</v>
+        <v>6.958679854562888e-09</v>
       </c>
       <c r="E140" t="n">
         <v>0.002709589898586273</v>
@@ -5887,7 +5887,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -5909,7 +5909,7 @@
         <v>140</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0004932699957862496</v>
+        <v>3.548208837855782e-08</v>
       </c>
       <c r="E141" t="n">
         <v>0.009317581541836262</v>
@@ -5926,7 +5926,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -5948,7 +5948,7 @@
         <v>141</v>
       </c>
       <c r="D142" t="n">
-        <v>0.004253244958817959</v>
+        <v>1.53483377118846e-08</v>
       </c>
       <c r="E142" t="n">
         <v>0.00463285343721509</v>
@@ -5965,7 +5965,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -5987,7 +5987,7 @@
         <v>142</v>
       </c>
       <c r="D143" t="n">
-        <v>0.001977366395294666</v>
+        <v>1.853747155777796e-10</v>
       </c>
       <c r="E143" t="n">
         <v>0.0006473253015428782</v>
@@ -6004,7 +6004,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -6026,7 +6026,7 @@
         <v>143</v>
       </c>
       <c r="D144" t="n">
-        <v>0.02970819920301437</v>
+        <v>2.683493427468875e-09</v>
       </c>
       <c r="E144" t="n">
         <v>6.806050805607811e-06</v>
@@ -6043,7 +6043,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -6065,7 +6065,7 @@
         <v>144</v>
       </c>
       <c r="D145" t="n">
-        <v>0.007402522955089808</v>
+        <v>4.173861700706993e-09</v>
       </c>
       <c r="E145" t="n">
         <v>0.00112735026050359</v>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -6104,7 +6104,7 @@
         <v>145</v>
       </c>
       <c r="D146" t="n">
-        <v>0.005246496759355068</v>
+        <v>1.189130127698945e-08</v>
       </c>
       <c r="E146" t="n">
         <v>0.001796075259335339</v>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -6143,7 +6143,7 @@
         <v>146</v>
       </c>
       <c r="D147" t="n">
-        <v>0.003198336809873581</v>
+        <v>4.842098944024542e-10</v>
       </c>
       <c r="E147" t="n">
         <v>0.001812902512028813</v>
@@ -6160,7 +6160,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -6182,7 +6182,7 @@
         <v>147</v>
       </c>
       <c r="D148" t="n">
-        <v>0.008022846654057503</v>
+        <v>4.891892757541427e-08</v>
       </c>
       <c r="E148" t="n">
         <v>0.01588267087936401</v>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -6221,7 +6221,7 @@
         <v>148</v>
       </c>
       <c r="D149" t="n">
-        <v>0.0001526328851468861</v>
+        <v>3.867019593428722e-09</v>
       </c>
       <c r="E149" t="n">
         <v>4.106802862224868e-07</v>
@@ -6238,7 +6238,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -6260,7 +6260,7 @@
         <v>149</v>
       </c>
       <c r="D150" t="n">
-        <v>0.0002382223756285384</v>
+        <v>4.371303041761365e-10</v>
       </c>
       <c r="E150" t="n">
         <v>0.0003350316255819052</v>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -6299,7 +6299,7 @@
         <v>150</v>
       </c>
       <c r="D151" t="n">
-        <v>0.006113550160080194</v>
+        <v>3.457411468232863e-09</v>
       </c>
       <c r="E151" t="n">
         <v>0.006568666081875563</v>
@@ -6316,7 +6316,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -6338,7 +6338,7 @@
         <v>151</v>
       </c>
       <c r="D152" t="n">
-        <v>0.002935657743364573</v>
+        <v>3.364195677590942e-08</v>
       </c>
       <c r="E152" t="n">
         <v>0.001426638453267515</v>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -6377,7 +6377,7 @@
         <v>152</v>
       </c>
       <c r="D153" t="n">
-        <v>0.0003034902038052678</v>
+        <v>4.763187066991748e-10</v>
       </c>
       <c r="E153" t="n">
         <v>8.638079452794045e-05</v>
@@ -6394,7 +6394,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -6416,7 +6416,7 @@
         <v>153</v>
       </c>
       <c r="D154" t="n">
-        <v>0.0103201474994421</v>
+        <v>4.343263526607188e-09</v>
       </c>
       <c r="E154" t="n">
         <v>0.0007344059413298965</v>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -6455,7 +6455,7 @@
         <v>154</v>
       </c>
       <c r="D155" t="n">
-        <v>0.008537933230400085</v>
+        <v>1.558648321520195e-08</v>
       </c>
       <c r="E155" t="n">
         <v>0.003335220972076058</v>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -6494,7 +6494,7 @@
         <v>155</v>
       </c>
       <c r="D156" t="n">
-        <v>0.006710972636938095</v>
+        <v>3.463286546434574e-08</v>
       </c>
       <c r="E156" t="n">
         <v>0.0008602141169831157</v>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -6533,7 +6533,7 @@
         <v>156</v>
       </c>
       <c r="D157" t="n">
-        <v>0.01813670992851257</v>
+        <v>7.148110547916531e-09</v>
       </c>
       <c r="E157" t="n">
         <v>0.001453482662327588</v>
@@ -6550,7 +6550,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -6572,7 +6572,7 @@
         <v>157</v>
       </c>
       <c r="D158" t="n">
-        <v>0.2170174270868301</v>
+        <v>1.51459922381747e-09</v>
       </c>
       <c r="E158" t="n">
         <v>0.0001853559660958126</v>
@@ -6589,7 +6589,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -6611,7 +6611,7 @@
         <v>158</v>
       </c>
       <c r="D159" t="n">
-        <v>0.001245565479621291</v>
+        <v>1.954893207312125e-07</v>
       </c>
       <c r="E159" t="n">
         <v>9.823443542700261e-05</v>
@@ -6628,7 +6628,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -6650,7 +6650,7 @@
         <v>159</v>
       </c>
       <c r="D160" t="n">
-        <v>2.996721923409496e-05</v>
+        <v>1.189174869686838e-09</v>
       </c>
       <c r="E160" t="n">
         <v>7.23247876521782e-06</v>
@@ -6667,7 +6667,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -6689,7 +6689,7 @@
         <v>160</v>
       </c>
       <c r="D161" t="n">
-        <v>0.003556461073458195</v>
+        <v>2.539984000904383e-09</v>
       </c>
       <c r="E161" t="n">
         <v>3.125757939415053e-05</v>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -6728,7 +6728,7 @@
         <v>161</v>
       </c>
       <c r="D162" t="n">
-        <v>8.387141133425757e-05</v>
+        <v>1.889875367311333e-09</v>
       </c>
       <c r="E162" t="n">
         <v>6.664744773843267e-07</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -6767,7 +6767,7 @@
         <v>162</v>
       </c>
       <c r="D163" t="n">
-        <v>3.529008972691372e-05</v>
+        <v>3.337249365742423e-09</v>
       </c>
       <c r="E163" t="n">
         <v>0.0003591899876482785</v>
@@ -6784,7 +6784,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -6806,7 +6806,7 @@
         <v>163</v>
       </c>
       <c r="D164" t="n">
-        <v>0.0008801334188319743</v>
+        <v>4.700075328933906e-10</v>
       </c>
       <c r="E164" t="n">
         <v>7.419237226713449e-05</v>
@@ -6823,7 +6823,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -6845,7 +6845,7 @@
         <v>164</v>
       </c>
       <c r="D165" t="n">
-        <v>0.01891955733299255</v>
+        <v>5.587070361912083e-09</v>
       </c>
       <c r="E165" t="n">
         <v>0.0002250644029118121</v>
@@ -6862,7 +6862,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -6884,7 +6884,7 @@
         <v>165</v>
       </c>
       <c r="D166" t="n">
-        <v>0.0005218308651819825</v>
+        <v>4.527132446696669e-09</v>
       </c>
       <c r="E166" t="n">
         <v>0.0001614050415810198</v>
@@ -6901,7 +6901,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -6923,7 +6923,7 @@
         <v>166</v>
       </c>
       <c r="D167" t="n">
-        <v>0.0005768272094428539</v>
+        <v>1.746093131194115e-10</v>
       </c>
       <c r="E167" t="n">
         <v>6.729048618581146e-05</v>
@@ -6940,7 +6940,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -6962,7 +6962,7 @@
         <v>167</v>
       </c>
       <c r="D168" t="n">
-        <v>0.002339574275538325</v>
+        <v>1.246196257298493e-09</v>
       </c>
       <c r="E168" t="n">
         <v>6.333231431199238e-05</v>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -7001,7 +7001,7 @@
         <v>168</v>
       </c>
       <c r="D169" t="n">
-        <v>0.003568865591660142</v>
+        <v>5.248954160208541e-09</v>
       </c>
       <c r="E169" t="n">
         <v>0.0001366858487017453</v>
@@ -7018,7 +7018,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -7040,7 +7040,7 @@
         <v>169</v>
       </c>
       <c r="D170" t="n">
-        <v>0.003864041296765208</v>
+        <v>8.35064639659322e-09</v>
       </c>
       <c r="E170" t="n">
         <v>0.002398171462118626</v>
@@ -7057,7 +7057,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -7079,7 +7079,7 @@
         <v>170</v>
       </c>
       <c r="D171" t="n">
-        <v>0.0001716238912194967</v>
+        <v>8.703647580432516e-09</v>
       </c>
       <c r="E171" t="n">
         <v>7.963254802234587e-07</v>
@@ -7096,7 +7096,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -7118,7 +7118,7 @@
         <v>171</v>
       </c>
       <c r="D172" t="n">
-        <v>0.006335033569484949</v>
+        <v>3.807737058991734e-08</v>
       </c>
       <c r="E172" t="n">
         <v>0.004496296402066946</v>
@@ -7135,7 +7135,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -7157,7 +7157,7 @@
         <v>172</v>
       </c>
       <c r="D173" t="n">
-        <v>0.006926734000444412</v>
+        <v>8.646396376654764e-10</v>
       </c>
       <c r="E173" t="n">
         <v>0.001006823848001659</v>
@@ -7174,7 +7174,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -7196,7 +7196,7 @@
         <v>173</v>
       </c>
       <c r="D174" t="n">
-        <v>0.001807504682801664</v>
+        <v>1.88535231870901e-09</v>
       </c>
       <c r="E174" t="n">
         <v>0.001774481846950948</v>
@@ -7213,7 +7213,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -7235,7 +7235,7 @@
         <v>174</v>
       </c>
       <c r="D175" t="n">
-        <v>0.007097190245985985</v>
+        <v>2.613394500805555e-10</v>
       </c>
       <c r="E175" t="n">
         <v>3.671886588563211e-05</v>
@@ -7252,7 +7252,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -7274,7 +7274,7 @@
         <v>175</v>
       </c>
       <c r="D176" t="n">
-        <v>0.007969124242663383</v>
+        <v>3.568973028222899e-08</v>
       </c>
       <c r="E176" t="n">
         <v>0.009838491678237915</v>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -7313,7 +7313,7 @@
         <v>176</v>
       </c>
       <c r="D177" t="n">
-        <v>0.003570667700842023</v>
+        <v>1.445062114413531e-08</v>
       </c>
       <c r="E177" t="n">
         <v>0.0008264034986495972</v>
@@ -7330,7 +7330,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -7352,7 +7352,7 @@
         <v>177</v>
       </c>
       <c r="D178" t="n">
-        <v>0.007111405022442341</v>
+        <v>9.323701810615148e-10</v>
       </c>
       <c r="E178" t="n">
         <v>0.001159878098405898</v>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -7391,7 +7391,7 @@
         <v>178</v>
       </c>
       <c r="D179" t="n">
-        <v>0.001994193764403462</v>
+        <v>1.800972287968605e-10</v>
       </c>
       <c r="E179" t="n">
         <v>0.002756373723968863</v>
@@ -7408,7 +7408,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -7430,7 +7430,7 @@
         <v>179</v>
       </c>
       <c r="D180" t="n">
-        <v>0.001077592372894287</v>
+        <v>2.626246553560918e-09</v>
       </c>
       <c r="E180" t="n">
         <v>0.0002277392341056839</v>
@@ -7447,7 +7447,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -7469,7 +7469,7 @@
         <v>180</v>
       </c>
       <c r="D181" t="n">
-        <v>0.002323033288121223</v>
+        <v>1.323587572876761e-09</v>
       </c>
       <c r="E181" t="n">
         <v>0.004729319829493761</v>
@@ -7486,7 +7486,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -7508,7 +7508,7 @@
         <v>181</v>
       </c>
       <c r="D182" t="n">
-        <v>0.03145046904683113</v>
+        <v>6.427808507680766e-09</v>
       </c>
       <c r="E182" t="n">
         <v>0.004056777339428663</v>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -7547,7 +7547,7 @@
         <v>182</v>
       </c>
       <c r="D183" t="n">
-        <v>0.002664712257683277</v>
+        <v>2.943919774622827e-09</v>
       </c>
       <c r="E183" t="n">
         <v>0.003013355424627662</v>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -7586,7 +7586,7 @@
         <v>183</v>
       </c>
       <c r="D184" t="n">
-        <v>0.002643923740833998</v>
+        <v>2.406209453909014e-08</v>
       </c>
       <c r="E184" t="n">
         <v>0.00172473129350692</v>
@@ -7603,7 +7603,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -7625,7 +7625,7 @@
         <v>184</v>
       </c>
       <c r="D185" t="n">
-        <v>0.001298845047131181</v>
+        <v>4.414988552525756e-08</v>
       </c>
       <c r="E185" t="n">
         <v>0.0003898815775755793</v>
@@ -7642,7 +7642,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -7664,7 +7664,7 @@
         <v>185</v>
       </c>
       <c r="D186" t="n">
-        <v>0.003024555277079344</v>
+        <v>1.492985646223133e-08</v>
       </c>
       <c r="E186" t="n">
         <v>0.001192577765323222</v>
@@ -7681,7 +7681,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -7703,7 +7703,7 @@
         <v>186</v>
       </c>
       <c r="D187" t="n">
-        <v>0.007557808887213469</v>
+        <v>6.96885606998876e-08</v>
       </c>
       <c r="E187" t="n">
         <v>0.001852961606346071</v>
@@ -7720,7 +7720,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -7742,7 +7742,7 @@
         <v>187</v>
       </c>
       <c r="D188" t="n">
-        <v>0.008065806701779366</v>
+        <v>3.376725743464704e-08</v>
       </c>
       <c r="E188" t="n">
         <v>0.0106535404920578</v>
@@ -7759,7 +7759,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -7781,7 +7781,7 @@
         <v>188</v>
       </c>
       <c r="D189" t="n">
-        <v>0.0004611294716596603</v>
+        <v>6.809528940721066e-09</v>
       </c>
       <c r="E189" t="n">
         <v>0.00118897738866508</v>
@@ -7798,7 +7798,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -7820,7 +7820,7 @@
         <v>189</v>
       </c>
       <c r="D190" t="n">
-        <v>0.0004382682091090828</v>
+        <v>2.86049295361579e-09</v>
       </c>
       <c r="E190" t="n">
         <v>0.0002463993150740862</v>
@@ -7837,7 +7837,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -7859,7 +7859,7 @@
         <v>190</v>
       </c>
       <c r="D191" t="n">
-        <v>0.000245740549871698</v>
+        <v>9.667094902354734e-10</v>
       </c>
       <c r="E191" t="n">
         <v>0.0002009860181715339</v>
@@ -7876,7 +7876,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -7898,7 +7898,7 @@
         <v>191</v>
       </c>
       <c r="D192" t="n">
-        <v>0.0004183909040875733</v>
+        <v>2.159956880021241e-09</v>
       </c>
       <c r="E192" t="n">
         <v>0.0003256633062846959</v>
@@ -7915,7 +7915,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -7937,7 +7937,7 @@
         <v>192</v>
       </c>
       <c r="D193" t="n">
-        <v>0.00239299051463604</v>
+        <v>4.516707718948965e-08</v>
       </c>
       <c r="E193" t="n">
         <v>0.002256565960124135</v>
@@ -7954,7 +7954,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -7976,7 +7976,7 @@
         <v>193</v>
       </c>
       <c r="D194" t="n">
-        <v>0.008027428761124611</v>
+        <v>4.26043449408553e-08</v>
       </c>
       <c r="E194" t="n">
         <v>0.001910718390718102</v>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -8015,7 +8015,7 @@
         <v>194</v>
       </c>
       <c r="D195" t="n">
-        <v>0.001611164654605091</v>
+        <v>8.490596004051554e-10</v>
       </c>
       <c r="E195" t="n">
         <v>0.0007152946782298386</v>
@@ -8032,7 +8032,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -8054,7 +8054,7 @@
         <v>195</v>
       </c>
       <c r="D196" t="n">
-        <v>0.01534006651490927</v>
+        <v>5.109082046317326e-09</v>
       </c>
       <c r="E196" t="n">
         <v>0.00282865297049284</v>
@@ -8071,7 +8071,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -8093,7 +8093,7 @@
         <v>196</v>
       </c>
       <c r="D197" t="n">
-        <v>0.002109712222591043</v>
+        <v>3.963634043202546e-08</v>
       </c>
       <c r="E197" t="n">
         <v>0.007526436354964972</v>
@@ -8110,7 +8110,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -8132,7 +8132,7 @@
         <v>197</v>
       </c>
       <c r="D198" t="n">
-        <v>0.001725611859001219</v>
+        <v>1.450675024550208e-09</v>
       </c>
       <c r="E198" t="n">
         <v>0.001888522645458579</v>
@@ -8149,7 +8149,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -8171,7 +8171,7 @@
         <v>198</v>
       </c>
       <c r="D199" t="n">
-        <v>0.005110947415232658</v>
+        <v>4.416900267756318e-08</v>
       </c>
       <c r="E199" t="n">
         <v>0.005717405583709478</v>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -8210,7 +8210,7 @@
         <v>199</v>
       </c>
       <c r="D200" t="n">
-        <v>0.01193279307335615</v>
+        <v>5.501445965450102e-09</v>
       </c>
       <c r="E200" t="n">
         <v>7.398464367724955e-05</v>
@@ -8227,7 +8227,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -8249,7 +8249,7 @@
         <v>200</v>
       </c>
       <c r="D201" t="n">
-        <v>0.001280705793760717</v>
+        <v>2.820442190909489e-08</v>
       </c>
       <c r="E201" t="n">
         <v>0.0006665405235253274</v>
@@ -8266,7 +8266,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -8288,7 +8288,7 @@
         <v>201</v>
       </c>
       <c r="D202" t="n">
-        <v>0.001429605297744274</v>
+        <v>1.540581706649391e-08</v>
       </c>
       <c r="E202" t="n">
         <v>0.002256995998322964</v>
@@ -8305,7 +8305,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -8327,7 +8327,7 @@
         <v>202</v>
       </c>
       <c r="D203" t="n">
-        <v>0.0002711654524318874</v>
+        <v>1.860897924643723e-08</v>
       </c>
       <c r="E203" t="n">
         <v>2.551888428570237e-05</v>
@@ -8344,7 +8344,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -8366,7 +8366,7 @@
         <v>203</v>
       </c>
       <c r="D204" t="n">
-        <v>0.003907468169927597</v>
+        <v>4.647535689628057e-09</v>
       </c>
       <c r="E204" t="n">
         <v>0.002931579714640975</v>
@@ -8383,7 +8383,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -8405,7 +8405,7 @@
         <v>204</v>
       </c>
       <c r="D205" t="n">
-        <v>0.001754489028826356</v>
+        <v>2.079272976018842e-09</v>
       </c>
       <c r="E205" t="n">
         <v>0.0004160284297540784</v>
@@ -8422,7 +8422,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -8444,7 +8444,7 @@
         <v>205</v>
       </c>
       <c r="D206" t="n">
-        <v>0.01092085894197226</v>
+        <v>4.205774395416029e-09</v>
       </c>
       <c r="E206" t="n">
         <v>0.0003204821841791272</v>
@@ -8461,7 +8461,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -8483,7 +8483,7 @@
         <v>206</v>
       </c>
       <c r="D207" t="n">
-        <v>0.001468331320211291</v>
+        <v>5.750078635458067e-09</v>
       </c>
       <c r="E207" t="n">
         <v>0.0001323690958088264</v>
@@ -8500,7 +8500,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -8522,7 +8522,7 @@
         <v>207</v>
       </c>
       <c r="D208" t="n">
-        <v>0.001122378977015615</v>
+        <v>7.433965665271103e-10</v>
       </c>
       <c r="E208" t="n">
         <v>0.008340251632034779</v>
@@ -8539,7 +8539,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -8561,7 +8561,7 @@
         <v>208</v>
       </c>
       <c r="D209" t="n">
-        <v>0.000175091321580112</v>
+        <v>6.770828342439472e-10</v>
       </c>
       <c r="E209" t="n">
         <v>4.787685838891775e-07</v>
@@ -8578,7 +8578,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
